--- a/dataset/病例审查结果统计.xlsx
+++ b/dataset/病例审查结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjj\Desktop\病例审查统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44BCB32-34A3-4044-9AB3-C7D23982ECE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29840F64-3331-4538-8782-FD33FDF5848A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="21144" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1968" yWindow="0" windowWidth="18864" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="19">
   <si>
     <t>病例号</t>
   </si>
@@ -162,11 +162,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +208,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,16 +254,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,23 +545,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L180"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.21875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
@@ -603,7 +595,7 @@
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -620,7 +612,7 @@
       <c r="B2" s="1">
         <v>182</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>1811150</v>
       </c>
       <c r="D2" s="1">
@@ -643,7 +635,7 @@
         <f>E2/H2</f>
         <v>0.22080616478956727</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J66" si="0">E2/G2</f>
         <v>0.38010204081632654</v>
       </c>
@@ -684,7 +676,7 @@
         <f t="shared" ref="I3:I66" si="2">E3/H3</f>
         <v>0.24242049761080903</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>4.5199692780337939</v>
       </c>
@@ -725,7 +717,7 @@
         <f t="shared" si="2"/>
         <v>0.36835609872993053</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>15.693210821847881</v>
       </c>
@@ -766,7 +758,7 @@
         <f t="shared" si="2"/>
         <v>8.5426263646115982E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>2.766990291262136</v>
       </c>
@@ -807,7 +799,7 @@
         <f t="shared" si="2"/>
         <v>0.12214386459802538</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0.44251405212059275</v>
       </c>
@@ -848,7 +840,7 @@
         <f t="shared" si="2"/>
         <v>5.4559411268992331E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>3.3396322778345251</v>
       </c>
@@ -889,7 +881,7 @@
         <f t="shared" si="2"/>
         <v>6.8571661392619956E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>4.4019180470793371</v>
       </c>
@@ -930,7 +922,7 @@
         <f t="shared" si="2"/>
         <v>6.0495565015348605E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>3.109851787271142</v>
       </c>
@@ -971,7 +963,7 @@
         <f t="shared" si="2"/>
         <v>4.9541284403669728E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0.58849171752397555</v>
       </c>
@@ -1012,7 +1004,7 @@
         <f t="shared" si="2"/>
         <v>0.1322521159392879</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>4.8770706190061031</v>
       </c>
@@ -1053,7 +1045,7 @@
         <f t="shared" si="2"/>
         <v>9.7165084388185649E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>6.4245858761987797</v>
       </c>
@@ -1094,7 +1086,7 @@
         <f t="shared" si="2"/>
         <v>0.28682209325595359</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>4.9982563208369664</v>
       </c>
@@ -1135,7 +1127,7 @@
         <f t="shared" si="2"/>
         <v>5.8247347415555338E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>2.1928538708199725</v>
       </c>
@@ -1176,7 +1168,7 @@
         <f t="shared" si="2"/>
         <v>0.10496729077374238</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>5.3289051763628033</v>
       </c>
@@ -1217,7 +1209,7 @@
         <f t="shared" si="2"/>
         <v>5.4980797868171484E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>1.2853870819972515</v>
       </c>
@@ -1258,7 +1250,7 @@
         <f t="shared" si="2"/>
         <v>5.4475064016583342E-2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>0.81859825927622543</v>
       </c>
@@ -1299,7 +1291,7 @@
         <f t="shared" si="2"/>
         <v>0.12267155389977166</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>2.9694545454545453</v>
       </c>
@@ -1340,7 +1332,7 @@
         <f t="shared" si="2"/>
         <v>0.10385699947426277</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>0.99541914796152087</v>
       </c>
@@ -1381,7 +1373,7 @@
         <f t="shared" si="2"/>
         <v>0.59285776273539881</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>6.2588181401740721</v>
       </c>
@@ -1422,7 +1414,7 @@
         <f t="shared" si="2"/>
         <v>0.17253440554411428</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>2.417773705909299</v>
       </c>
@@ -1463,7 +1455,7 @@
         <f t="shared" si="2"/>
         <v>0.26534626292196506</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>5.371296296296296</v>
       </c>
@@ -1504,7 +1496,7 @@
         <f t="shared" si="2"/>
         <v>7.7920681348933235E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>3.3546296296296299</v>
       </c>
@@ -1545,7 +1537,7 @@
         <f t="shared" si="2"/>
         <v>0.47840797791826195</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>34.825000000000003</v>
       </c>
@@ -1586,7 +1578,7 @@
         <f t="shared" si="2"/>
         <v>0.26971662683509728</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>16.824074074074073</v>
       </c>
@@ -1627,7 +1619,7 @@
         <f t="shared" si="2"/>
         <v>0.14332744499759115</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>1.6527777777777777</v>
       </c>
@@ -1668,7 +1660,7 @@
         <f t="shared" si="2"/>
         <v>0.11714833630521818</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>3.0357454228421972</v>
       </c>
@@ -1709,7 +1701,7 @@
         <f t="shared" si="2"/>
         <v>0.16206975704637985</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>12.421296296296296</v>
       </c>
@@ -1750,7 +1742,7 @@
         <f t="shared" si="2"/>
         <v>0.13343687191668188</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>6.7620370370370368</v>
       </c>
@@ -1791,7 +1783,7 @@
         <f t="shared" si="2"/>
         <v>4.9139202206093566E-2</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>2.3759259259259258</v>
       </c>
@@ -1832,7 +1824,7 @@
         <f t="shared" si="2"/>
         <v>0.12892772619697798</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>3.0871839581517002</v>
       </c>
@@ -1873,7 +1865,7 @@
         <f t="shared" si="2"/>
         <v>2.9499689773816909E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0.91433566433566438</v>
       </c>
@@ -1914,7 +1906,7 @@
         <f t="shared" si="2"/>
         <v>9.2483402200659273E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>5.2101133391455976</v>
       </c>
@@ -1955,7 +1947,7 @@
         <f t="shared" si="2"/>
         <v>6.4370139285557362E-2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>1.2783595113438044</v>
       </c>
@@ -1996,7 +1988,7 @@
         <f t="shared" si="2"/>
         <v>3.8219529247261713E-2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>0.28671328671328672</v>
       </c>
@@ -2037,7 +2029,7 @@
         <f t="shared" si="2"/>
         <v>7.1772253408179637E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>0.93881118881118886</v>
       </c>
@@ -2078,7 +2070,7 @@
         <f t="shared" si="2"/>
         <v>6.7677961824050586E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>4.4420226678291197</v>
       </c>
@@ -2119,7 +2111,7 @@
         <f t="shared" si="2"/>
         <v>0.13550575051607194</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>0.80122057541412384</v>
       </c>
@@ -2160,7 +2152,7 @@
         <f t="shared" si="2"/>
         <v>4.0780400598343612E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>3.8979947689625107</v>
       </c>
@@ -2201,7 +2193,7 @@
         <f t="shared" si="2"/>
         <v>2.3430303639317356E-2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>1.2197035745422842</v>
       </c>
@@ -2242,7 +2234,7 @@
         <f t="shared" si="2"/>
         <v>0.10505510559219713</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>4.2632955536181338</v>
       </c>
@@ -2283,7 +2275,7 @@
         <f t="shared" si="2"/>
         <v>0.30530277596169136</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>15.063644289450741</v>
       </c>
@@ -2324,7 +2316,7 @@
         <f t="shared" si="2"/>
         <v>0.30603857097692067</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>1.6878814298169136</v>
       </c>
@@ -2365,7 +2357,7 @@
         <f t="shared" si="2"/>
         <v>0.1038562336203669</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>1.2092414995640801</v>
       </c>
@@ -2406,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>3.6795701478358964E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>2.161290322580645</v>
       </c>
@@ -2447,7 +2439,7 @@
         <f t="shared" si="2"/>
         <v>8.7286443310406039E-2</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>1.7149084568439408</v>
       </c>
@@ -2488,7 +2480,7 @@
         <f t="shared" si="2"/>
         <v>0.2250524423134552</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>1.3095030514385353</v>
       </c>
@@ -2529,7 +2521,7 @@
         <f t="shared" si="2"/>
         <v>6.0240089416614649E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>3.6181342632955538</v>
       </c>
@@ -2570,7 +2562,7 @@
         <f t="shared" si="2"/>
         <v>3.784932178460533E-2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>1.009590235396687</v>
       </c>
@@ -2611,7 +2603,7 @@
         <f t="shared" si="2"/>
         <v>7.270500725689405E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>1.3975588491717523</v>
       </c>
@@ -2652,7 +2644,7 @@
         <f t="shared" si="2"/>
         <v>0.18871000611371511</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>3.2292938099389712</v>
       </c>
@@ -2693,7 +2685,7 @@
         <f t="shared" si="2"/>
         <v>5.4593184630304652E-2</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>2.8465562336530077</v>
       </c>
@@ -2734,7 +2726,7 @@
         <f t="shared" si="2"/>
         <v>6.6044562940392307E-2</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>1.5117698343504795</v>
       </c>
@@ -2775,7 +2767,7 @@
         <f t="shared" si="2"/>
         <v>0.11555540936153416</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="0"/>
         <v>3.0627724498692239</v>
       </c>
@@ -2816,7 +2808,7 @@
         <f t="shared" si="2"/>
         <v>5.6887350353382375E-2</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>1.7192676547515258</v>
       </c>
@@ -2857,7 +2849,7 @@
         <f t="shared" si="2"/>
         <v>9.8356039004470736E-2</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <f t="shared" si="0"/>
         <v>2.4359197907585006</v>
       </c>
@@ -2898,7 +2890,7 @@
         <f t="shared" si="2"/>
         <v>2.9218094392208509E-2</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <f t="shared" si="0"/>
         <v>1.6634699215344377</v>
       </c>
@@ -2939,7 +2931,7 @@
         <f t="shared" si="2"/>
         <v>1.3198727265585105E-2</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
         <v>0.29293809938971227</v>
       </c>
@@ -2980,7 +2972,7 @@
         <f t="shared" si="2"/>
         <v>3.63623374767824E-2</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
         <v>1.3312990409764602</v>
       </c>
@@ -3020,7 +3012,7 @@
         <f t="shared" si="2"/>
         <v>5.5884334541216746E-2</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <f t="shared" si="0"/>
         <v>2.2015781922525108</v>
       </c>
@@ -3060,7 +3052,7 @@
         <f t="shared" si="2"/>
         <v>5.6117655561176559E-2</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f t="shared" si="0"/>
         <v>1.1148600143575018</v>
       </c>
@@ -3100,7 +3092,7 @@
         <f t="shared" si="2"/>
         <v>1.8123387696209175E-2</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
         <v>0.59469153515064566</v>
       </c>
@@ -3140,7 +3132,7 @@
         <f t="shared" si="2"/>
         <v>9.2089019385405892E-3</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
         <v>0.19856115107913669</v>
       </c>
@@ -3180,7 +3172,7 @@
         <f t="shared" si="2"/>
         <v>2.3371052436949931E-2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
         <v>0.2266857962697274</v>
       </c>
@@ -3220,7 +3212,7 @@
         <f t="shared" si="2"/>
         <v>8.5008038585209E-2</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
         <v>0.3043165467625899</v>
       </c>
@@ -3260,7 +3252,7 @@
         <f t="shared" si="2"/>
         <v>2.7251846793717796E-2</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <f t="shared" si="0"/>
         <v>0.31492109038737448</v>
       </c>
@@ -3300,7 +3292,7 @@
         <f t="shared" ref="I67:I130" si="3">E67/H67</f>
         <v>2.0418613582538565E-2</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <f t="shared" ref="J67:J130" si="4">E67/G67</f>
         <v>0.91600861450107685</v>
       </c>
@@ -3340,7 +3332,7 @@
         <f t="shared" si="3"/>
         <v>7.2163751179502064E-2</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <f t="shared" si="4"/>
         <v>3.5814121037463975</v>
       </c>
@@ -3380,7 +3372,7 @@
         <f t="shared" si="3"/>
         <v>3.0001320480654958E-2</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <f t="shared" si="4"/>
         <v>1.629842180774749</v>
       </c>
@@ -3420,7 +3412,7 @@
         <f t="shared" si="3"/>
         <v>2.1162455140774722E-2</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <f t="shared" si="4"/>
         <v>0.41210374639769454</v>
       </c>
@@ -3460,7 +3452,7 @@
         <f t="shared" si="3"/>
         <v>2.0238981898254592E-2</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <f t="shared" si="4"/>
         <v>0.89734386216798279</v>
       </c>
@@ -3500,7 +3492,7 @@
         <f t="shared" si="3"/>
         <v>4.3758480325644507E-2</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <f t="shared" si="4"/>
         <v>0.37122302158273379</v>
       </c>
@@ -3540,7 +3532,7 @@
         <f t="shared" si="3"/>
         <v>2.178250748254074E-2</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <f t="shared" si="4"/>
         <v>9.397417503586801E-2</v>
       </c>
@@ -3580,7 +3572,7 @@
         <f t="shared" si="3"/>
         <v>2.8714252499418738E-2</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <f t="shared" si="4"/>
         <v>0.17718794835007173</v>
       </c>
@@ -3620,7 +3612,7 @@
         <f t="shared" si="3"/>
         <v>2.9782284833119888E-2</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <f t="shared" si="4"/>
         <v>1.6348637015781922</v>
       </c>
@@ -3660,7 +3652,7 @@
         <f t="shared" si="3"/>
         <v>1.0978082086983131E-2</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <f t="shared" si="4"/>
         <v>0.20588235294117646</v>
       </c>
@@ -3700,7 +3692,7 @@
         <f t="shared" si="3"/>
         <v>2.7457602231847882E-2</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <f t="shared" si="4"/>
         <v>1.0770338372930166</v>
       </c>
@@ -3740,7 +3732,7 @@
         <f t="shared" si="3"/>
         <v>3.2794909446891826E-2</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <f t="shared" si="4"/>
         <v>1.587221823402728</v>
       </c>
@@ -3780,7 +3772,7 @@
         <f t="shared" si="3"/>
         <v>3.5327612478947792E-2</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <f t="shared" si="4"/>
         <v>0.6324479540559943</v>
       </c>
@@ -3820,7 +3812,7 @@
         <f t="shared" si="3"/>
         <v>2.2176506891586092E-2</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <f t="shared" si="4"/>
         <v>0.3866571018651363</v>
       </c>
@@ -3860,7 +3852,7 @@
         <f t="shared" si="3"/>
         <v>4.3245354611907816E-2</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <f t="shared" si="4"/>
         <v>0.55835734870317</v>
       </c>
@@ -3900,7 +3892,7 @@
         <f t="shared" si="3"/>
         <v>1.9764569103328005E-2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <f t="shared" si="4"/>
         <v>0.29289303661162958</v>
       </c>
@@ -3940,7 +3932,7 @@
         <f t="shared" si="3"/>
         <v>1.7397941726107442E-2</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <f t="shared" si="4"/>
         <v>0.47417503586800575</v>
       </c>
@@ -3980,7 +3972,7 @@
         <f t="shared" si="3"/>
         <v>5.7838809874121301E-2</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <f t="shared" si="4"/>
         <v>1.2690100430416069</v>
       </c>
@@ -4020,7 +4012,7 @@
         <f t="shared" si="3"/>
         <v>2.4892920131015368E-2</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <f t="shared" si="4"/>
         <v>0.35437589670014347</v>
       </c>
@@ -4060,7 +4052,7 @@
         <f t="shared" si="3"/>
         <v>1.3561103810775296E-2</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <f t="shared" si="4"/>
         <v>0.37015781922525109</v>
       </c>
@@ -4100,7 +4092,7 @@
         <f t="shared" si="3"/>
         <v>1.7439716835041665E-2</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <f t="shared" si="4"/>
         <v>0.33955491744436467</v>
       </c>
@@ -4140,7 +4132,7 @@
         <f t="shared" si="3"/>
         <v>1.3808470496389304E-2</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <f t="shared" si="4"/>
         <v>0.60903873744619796</v>
       </c>
@@ -4180,7 +4172,7 @@
         <f t="shared" si="3"/>
         <v>2.8491154133192854E-2</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <f t="shared" si="4"/>
         <v>0.46556671449067433</v>
       </c>
@@ -4220,7 +4212,7 @@
         <f t="shared" si="3"/>
         <v>8.223461358069728E-2</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <f t="shared" si="4"/>
         <v>1.1319942611190819</v>
       </c>
@@ -4260,7 +4252,7 @@
         <f t="shared" si="3"/>
         <v>4.230954676952748E-2</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <f t="shared" si="4"/>
         <v>0.25179340028694402</v>
       </c>
@@ -4300,7 +4292,7 @@
         <f t="shared" si="3"/>
         <v>1.8345339836234282E-2</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <f t="shared" si="4"/>
         <v>0.29411764705882354</v>
       </c>
@@ -4340,7 +4332,7 @@
         <f t="shared" si="3"/>
         <v>2.4495440028973102E-2</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <f t="shared" si="4"/>
         <v>0.53409906676238339</v>
       </c>
@@ -4380,7 +4372,7 @@
         <f t="shared" si="3"/>
         <v>1.9520057306590257E-2</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <f t="shared" si="4"/>
         <v>0.31321839080459768</v>
       </c>
@@ -4420,7 +4412,7 @@
         <f t="shared" si="3"/>
         <v>5.3795163170163168E-2</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <f t="shared" si="4"/>
         <v>2.1313131313131315</v>
       </c>
@@ -4460,7 +4452,7 @@
         <f t="shared" si="3"/>
         <v>1.46899978397062E-2</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <f t="shared" si="4"/>
         <v>0.68292682926829273</v>
       </c>
@@ -4500,7 +4492,7 @@
         <f t="shared" si="3"/>
         <v>1.112228823049329E-2</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <f t="shared" si="4"/>
         <v>0.42037302725968434</v>
       </c>
@@ -4540,7 +4532,7 @@
         <f t="shared" si="3"/>
         <v>0.27659574468085107</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <f t="shared" si="4"/>
         <v>8.3931133428981355E-2</v>
       </c>
@@ -4580,7 +4572,7 @@
         <f t="shared" si="3"/>
         <v>1.4122933718504253E-2</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <f t="shared" si="4"/>
         <v>0.37876614060258251</v>
       </c>
@@ -4620,7 +4612,7 @@
         <f t="shared" si="3"/>
         <v>3.6494911411744414E-2</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <f t="shared" si="4"/>
         <v>1.0624103299856529</v>
       </c>
@@ -4660,7 +4652,7 @@
         <f t="shared" si="3"/>
         <v>8.9858793324775355E-3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <f t="shared" si="4"/>
         <v>5.5236728837876614E-2</v>
       </c>
@@ -4700,7 +4692,7 @@
         <f t="shared" si="3"/>
         <v>1.1669281095764625E-2</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <f t="shared" si="4"/>
         <v>0.43758967001434718</v>
       </c>
@@ -4740,7 +4732,7 @@
         <f t="shared" si="3"/>
         <v>2.1089288804291399E-2</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <f t="shared" si="4"/>
         <v>0.70244956772334299</v>
       </c>
@@ -4780,7 +4772,7 @@
         <f t="shared" si="3"/>
         <v>4.7767564018384764E-2</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <f t="shared" si="4"/>
         <v>2.2962697274031565</v>
       </c>
@@ -4820,7 +4812,7 @@
         <f t="shared" si="3"/>
         <v>4.3854899837574443E-2</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <f t="shared" si="4"/>
         <v>0.63916786226685796</v>
       </c>
@@ -4860,7 +4852,7 @@
         <f t="shared" si="3"/>
         <v>2.11571420128834E-2</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <f t="shared" si="4"/>
         <v>1.0272596843615496</v>
       </c>
@@ -4900,7 +4892,7 @@
         <f t="shared" si="3"/>
         <v>1.7334913013655921E-2</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <f t="shared" si="4"/>
         <v>0.80115273775216134</v>
       </c>
@@ -4940,7 +4932,7 @@
         <f t="shared" si="3"/>
         <v>1.5834031610274784E-2</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <f t="shared" si="4"/>
         <v>0.39311334289813488</v>
       </c>
@@ -4980,7 +4972,7 @@
         <f t="shared" si="3"/>
         <v>1.7818703659411624E-2</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <f t="shared" si="4"/>
         <v>0.74820659971305592</v>
       </c>
@@ -5020,7 +5012,7 @@
         <f t="shared" si="3"/>
         <v>2.4943000455996352E-2</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <f t="shared" si="4"/>
         <v>1.1780330222541278</v>
       </c>
@@ -5060,7 +5052,7 @@
         <f t="shared" si="3"/>
         <v>6.8848894794057258E-2</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <f t="shared" si="4"/>
         <v>1.6355810616929698</v>
       </c>
@@ -5100,7 +5092,7 @@
         <f t="shared" si="3"/>
         <v>7.0820593339393445E-2</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <f t="shared" si="4"/>
         <v>1.2295552367288378</v>
       </c>
@@ -5140,7 +5132,7 @@
         <f t="shared" si="3"/>
         <v>3.090064438783156E-2</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <f t="shared" si="4"/>
         <v>0.74226061915046793</v>
       </c>
@@ -5180,7 +5172,7 @@
         <f t="shared" si="3"/>
         <v>4.6673601374881281E-2</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <f t="shared" si="4"/>
         <v>0.74031563845050219</v>
       </c>
@@ -5220,7 +5212,7 @@
         <f t="shared" si="3"/>
         <v>1.1653718091009988E-2</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <f t="shared" si="4"/>
         <v>0.16642651296829972</v>
       </c>
@@ -5260,7 +5252,7 @@
         <f t="shared" si="3"/>
         <v>0.14623720910150684</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <f t="shared" si="4"/>
         <v>9.7187948350071736</v>
       </c>
@@ -5300,7 +5292,7 @@
         <f t="shared" si="3"/>
         <v>2.788220551378446E-2</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <f t="shared" si="4"/>
         <v>1.0853658536585367</v>
       </c>
@@ -5340,7 +5332,7 @@
         <f t="shared" si="3"/>
         <v>1.304622290804517E-2</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <f t="shared" si="4"/>
         <v>0.13352476669059585</v>
       </c>
@@ -5380,7 +5372,7 @@
         <f t="shared" si="3"/>
         <v>2.1271900040744262E-2</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="2">
         <f t="shared" si="4"/>
         <v>0.89885222381635577</v>
       </c>
@@ -5420,7 +5412,7 @@
         <f t="shared" si="3"/>
         <v>2.2363284812666449E-2</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="2">
         <f t="shared" si="4"/>
         <v>0.43974175035868007</v>
       </c>
@@ -5460,7 +5452,7 @@
         <f t="shared" si="3"/>
         <v>1.2852723157741741E-2</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <f t="shared" si="4"/>
         <v>0.44564434845212381</v>
       </c>
@@ -5500,7 +5492,7 @@
         <f t="shared" si="3"/>
         <v>2.2213247172859451E-2</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="2">
         <f t="shared" si="4"/>
         <v>7.8909612625538014E-2</v>
       </c>
@@ -5540,7 +5532,7 @@
         <f t="shared" si="3"/>
         <v>3.3952478591243514E-2</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="2">
         <f t="shared" si="4"/>
         <v>0.80774748923959827</v>
       </c>
@@ -5580,7 +5572,7 @@
         <f t="shared" si="3"/>
         <v>4.8483097370702111E-2</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="2">
         <f t="shared" si="4"/>
         <v>1.2037302725968435</v>
       </c>
@@ -5620,7 +5612,7 @@
         <f t="shared" si="3"/>
         <v>4.8462255358807084E-2</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="2">
         <f t="shared" si="4"/>
         <v>3.7302725968436153E-2</v>
       </c>
@@ -5660,7 +5652,7 @@
         <f t="shared" si="3"/>
         <v>5.9151589671526436E-2</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="2">
         <f t="shared" si="4"/>
         <v>0.96628407460545196</v>
       </c>
@@ -5700,7 +5692,7 @@
         <f t="shared" si="3"/>
         <v>2.401907652287015E-2</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="2">
         <f t="shared" si="4"/>
         <v>0.79483500717360112</v>
       </c>
@@ -5740,7 +5732,7 @@
         <f t="shared" si="3"/>
         <v>1.9721626508557251E-2</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="2">
         <f t="shared" si="4"/>
         <v>0.672883787661406</v>
       </c>
@@ -5780,7 +5772,7 @@
         <f t="shared" si="3"/>
         <v>1.5242387090360847E-2</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="2">
         <f t="shared" si="4"/>
         <v>0.33045977011494254</v>
       </c>
@@ -5820,7 +5812,7 @@
         <f t="shared" si="3"/>
         <v>3.5694366982710543E-2</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="2">
         <f t="shared" si="4"/>
         <v>0.13783201722900215</v>
       </c>
@@ -5857,11 +5849,11 @@
         <v>16826</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" ref="I131:I180" si="5">E131/H131</f>
+        <f t="shared" ref="I131:I194" si="5">E131/H131</f>
         <v>2.3891596338999167E-2</v>
       </c>
-      <c r="J131" s="3">
-        <f t="shared" ref="J131:J180" si="6">E131/G131</f>
+      <c r="J131" s="2">
+        <f t="shared" ref="J131:J194" si="6">E131/G131</f>
         <v>0.28837876614060259</v>
       </c>
       <c r="K131" s="1" t="s">
@@ -5900,7 +5892,7 @@
         <f t="shared" si="5"/>
         <v>5.5024589403359005E-2</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="2">
         <f t="shared" si="6"/>
         <v>0.85078909612625542</v>
       </c>
@@ -5940,7 +5932,7 @@
         <f t="shared" si="5"/>
         <v>2.0459260319050005E-2</v>
       </c>
-      <c r="J133" s="3">
+      <c r="J133" s="2">
         <f t="shared" si="6"/>
         <v>0.41032998565279771</v>
       </c>
@@ -5980,7 +5972,7 @@
         <f t="shared" si="5"/>
         <v>3.2229528499395511E-2</v>
       </c>
-      <c r="J134" s="3">
+      <c r="J134" s="2">
         <f t="shared" si="6"/>
         <v>1.5681492109038737</v>
       </c>
@@ -6020,7 +6012,7 @@
         <f t="shared" si="5"/>
         <v>3.2074408117249154E-2</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="2">
         <f t="shared" si="6"/>
         <v>0.82047584715212685</v>
       </c>
@@ -6060,7 +6052,7 @@
         <f t="shared" si="5"/>
         <v>3.2074408117249154E-2</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="2">
         <f t="shared" si="6"/>
         <v>0.82047584715212685</v>
       </c>
@@ -6100,7 +6092,7 @@
         <f t="shared" si="5"/>
         <v>1.5722375122583912E-2</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="2">
         <f t="shared" si="6"/>
         <v>0.35781137508999278</v>
       </c>
@@ -6140,7 +6132,7 @@
         <f t="shared" si="5"/>
         <v>2.3687580025608196E-2</v>
       </c>
-      <c r="J138" s="3">
+      <c r="J138" s="2">
         <f t="shared" si="6"/>
         <v>0.13271162123385941</v>
       </c>
@@ -6180,7 +6172,7 @@
         <f t="shared" si="5"/>
         <v>2.6450005930494604E-2</v>
       </c>
-      <c r="J139" s="3">
+      <c r="J139" s="2">
         <f t="shared" si="6"/>
         <v>0.16020114942528735</v>
       </c>
@@ -6220,7 +6212,7 @@
         <f t="shared" si="5"/>
         <v>2.1158236599247565E-2</v>
       </c>
-      <c r="J140" s="3">
+      <c r="J140" s="2">
         <f t="shared" si="6"/>
         <v>0.47236180904522612</v>
       </c>
@@ -6260,7 +6252,7 @@
         <f t="shared" si="5"/>
         <v>4.2785171817429885E-2</v>
       </c>
-      <c r="J141" s="3">
+      <c r="J141" s="2">
         <f t="shared" si="6"/>
         <v>1.2280575539568346</v>
       </c>
@@ -6300,7 +6292,7 @@
         <f t="shared" si="5"/>
         <v>1.356508008660598E-2</v>
       </c>
-      <c r="J142" s="3">
+      <c r="J142" s="2">
         <f t="shared" si="6"/>
         <v>0.81348637015781922</v>
       </c>
@@ -6340,7 +6332,7 @@
         <f t="shared" si="5"/>
         <v>1.356508008660598E-2</v>
       </c>
-      <c r="J143" s="3">
+      <c r="J143" s="2">
         <f t="shared" si="6"/>
         <v>0.81348637015781922</v>
       </c>
@@ -6380,7 +6372,7 @@
         <f t="shared" si="5"/>
         <v>3.0728476821192053E-2</v>
       </c>
-      <c r="J144" s="3">
+      <c r="J144" s="2">
         <f t="shared" si="6"/>
         <v>0.41726618705035973</v>
       </c>
@@ -6420,7 +6412,7 @@
         <f t="shared" si="5"/>
         <v>5.9966523542682483E-2</v>
       </c>
-      <c r="J145" s="3">
+      <c r="J145" s="2">
         <f t="shared" si="6"/>
         <v>1.7745872218234027</v>
       </c>
@@ -6460,7 +6452,7 @@
         <f t="shared" si="5"/>
         <v>3.1818318907018125E-2</v>
       </c>
-      <c r="J146" s="3">
+      <c r="J146" s="2">
         <f t="shared" si="6"/>
         <v>0.75681492109038739</v>
       </c>
@@ -6500,7 +6492,7 @@
         <f t="shared" si="5"/>
         <v>1.9553878011061308E-2</v>
       </c>
-      <c r="J147" s="3">
+      <c r="J147" s="2">
         <f t="shared" si="6"/>
         <v>0.5351506456241033</v>
       </c>
@@ -6540,7 +6532,7 @@
         <f t="shared" si="5"/>
         <v>2.4600110314396028E-2</v>
       </c>
-      <c r="J148" s="3">
+      <c r="J148" s="2">
         <f t="shared" si="6"/>
         <v>0.641726618705036</v>
       </c>
@@ -6580,7 +6572,7 @@
         <f t="shared" si="5"/>
         <v>2.8561408123451919E-2</v>
       </c>
-      <c r="J149" s="3">
+      <c r="J149" s="2">
         <f t="shared" si="6"/>
         <v>0.9347202295552367</v>
       </c>
@@ -6620,7 +6612,7 @@
         <f t="shared" si="5"/>
         <v>2.4198390776990514E-2</v>
       </c>
-      <c r="J150" s="3">
+      <c r="J150" s="2">
         <f t="shared" si="6"/>
         <v>1.1572146446518305</v>
       </c>
@@ -6660,7 +6652,7 @@
         <f t="shared" si="5"/>
         <v>5.7722059215790877E-2</v>
       </c>
-      <c r="J151" s="3">
+      <c r="J151" s="2">
         <f t="shared" si="6"/>
         <v>0.77618364418938302</v>
       </c>
@@ -6700,7 +6692,7 @@
         <f t="shared" si="5"/>
         <v>1.2388326384752828E-2</v>
       </c>
-      <c r="J152" s="3">
+      <c r="J152" s="2">
         <f t="shared" si="6"/>
         <v>0.37383177570093457</v>
       </c>
@@ -6740,7 +6732,7 @@
         <f t="shared" si="5"/>
         <v>2.0866362025552549E-2</v>
       </c>
-      <c r="J153" s="3">
+      <c r="J153" s="2">
         <f t="shared" si="6"/>
         <v>0.64249820531227564</v>
       </c>
@@ -6780,7 +6772,7 @@
         <f t="shared" si="5"/>
         <v>2.8250785575340415E-2</v>
       </c>
-      <c r="J154" s="3">
+      <c r="J154" s="2">
         <f t="shared" si="6"/>
         <v>1.3563218390804597</v>
       </c>
@@ -6820,7 +6812,7 @@
         <f t="shared" si="5"/>
         <v>1.8590836587646445E-2</v>
       </c>
-      <c r="J155" s="3">
+      <c r="J155" s="2">
         <f t="shared" si="6"/>
         <v>0.48493543758967</v>
       </c>
@@ -6860,7 +6852,7 @@
         <f t="shared" si="5"/>
         <v>1.1855500821018062E-2</v>
       </c>
-      <c r="J156" s="3">
+      <c r="J156" s="2">
         <f t="shared" si="6"/>
         <v>0.25933908045977011</v>
       </c>
@@ -6900,7 +6892,7 @@
         <f t="shared" si="5"/>
         <v>1.2875918912898196E-2</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="2">
         <f t="shared" si="6"/>
         <v>0.41463414634146339</v>
       </c>
@@ -6940,7 +6932,7 @@
         <f t="shared" si="5"/>
         <v>3.3514941390127125E-2</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="2">
         <f t="shared" si="6"/>
         <v>0.29124820659971307</v>
       </c>
@@ -6980,7 +6972,7 @@
         <f t="shared" si="5"/>
         <v>1.7795753286147624E-2</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="2">
         <f t="shared" si="6"/>
         <v>0.12634601579325197</v>
       </c>
@@ -7020,7 +7012,7 @@
         <f t="shared" si="5"/>
         <v>6.3952239831636823E-2</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="2">
         <f t="shared" si="6"/>
         <v>0.99068529607451761</v>
       </c>
@@ -7060,7 +7052,7 @@
         <f t="shared" si="5"/>
         <v>2.7885202523916141E-2</v>
       </c>
-      <c r="J161" s="3">
+      <c r="J161" s="2">
         <f t="shared" si="6"/>
         <v>0.39311334289813488</v>
       </c>
@@ -7100,7 +7092,7 @@
         <f t="shared" si="5"/>
         <v>6.4558668385886767E-2</v>
       </c>
-      <c r="J162" s="3">
+      <c r="J162" s="2">
         <f t="shared" si="6"/>
         <v>1.6440298507462687</v>
       </c>
@@ -7140,7 +7132,7 @@
         <f t="shared" si="5"/>
         <v>1.6897478296816867E-2</v>
       </c>
-      <c r="J163" s="3">
+      <c r="J163" s="2">
         <f t="shared" si="6"/>
         <v>0.25626959247648901</v>
       </c>
@@ -7180,7 +7172,7 @@
         <f t="shared" si="5"/>
         <v>1.3610683102208527E-2</v>
       </c>
-      <c r="J164" s="3">
+      <c r="J164" s="2">
         <f t="shared" si="6"/>
         <v>0.48502495840266224</v>
       </c>
@@ -7220,7 +7212,7 @@
         <f t="shared" si="5"/>
         <v>4.129562127993356E-2</v>
       </c>
-      <c r="J165" s="3">
+      <c r="J165" s="2">
         <f t="shared" si="6"/>
         <v>2.1566265060240966</v>
       </c>
@@ -7260,7 +7252,7 @@
         <f t="shared" si="5"/>
         <v>2.1762188654401815E-3</v>
       </c>
-      <c r="J166" s="3">
+      <c r="J166" s="2">
         <f t="shared" si="6"/>
         <v>9.6669374492282703E-2</v>
       </c>
@@ -7300,7 +7292,7 @@
         <f t="shared" si="5"/>
         <v>2.5299523925956822E-2</v>
       </c>
-      <c r="J167" s="3">
+      <c r="J167" s="2">
         <f t="shared" si="6"/>
         <v>1.3448012232415902</v>
       </c>
@@ -7340,7 +7332,7 @@
         <f t="shared" si="5"/>
         <v>1.4924100289953949E-2</v>
       </c>
-      <c r="J168" s="3">
+      <c r="J168" s="2">
         <f t="shared" si="6"/>
         <v>0.77951002227171495</v>
       </c>
@@ -7380,7 +7372,7 @@
         <f t="shared" si="5"/>
         <v>1.8462236334769788E-2</v>
       </c>
-      <c r="J169" s="3">
+      <c r="J169" s="2">
         <f t="shared" si="6"/>
         <v>0.62090007627765065</v>
       </c>
@@ -7420,7 +7412,7 @@
         <f t="shared" si="5"/>
         <v>2.8229632641995392E-2</v>
       </c>
-      <c r="J170" s="3">
+      <c r="J170" s="2">
         <f t="shared" si="6"/>
         <v>1.2232011747430249</v>
       </c>
@@ -7460,7 +7452,7 @@
         <f t="shared" si="5"/>
         <v>2.6643682332305088E-2</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J171" s="2">
         <f t="shared" si="6"/>
         <v>0.65746268656716422</v>
       </c>
@@ -7500,7 +7492,7 @@
         <f t="shared" si="5"/>
         <v>4.9253484656492756E-2</v>
       </c>
-      <c r="J172" s="3">
+      <c r="J172" s="2">
         <f t="shared" si="6"/>
         <v>1.3494339622641509</v>
       </c>
@@ -7540,7 +7532,7 @@
         <f t="shared" si="5"/>
         <v>6.2017895711200248E-2</v>
       </c>
-      <c r="J173" s="3">
+      <c r="J173" s="2">
         <f t="shared" si="6"/>
         <v>0.46926070038910506</v>
       </c>
@@ -7580,7 +7572,7 @@
         <f t="shared" si="5"/>
         <v>7.1921182266009853E-2</v>
       </c>
-      <c r="J174" s="3">
+      <c r="J174" s="2">
         <f t="shared" si="6"/>
         <v>0.17149569303054032</v>
       </c>
@@ -7620,7 +7612,7 @@
         <f t="shared" si="5"/>
         <v>1.3999461559170801E-2</v>
       </c>
-      <c r="J175" s="3">
+      <c r="J175" s="2">
         <f t="shared" si="6"/>
         <v>0.2698295033358043</v>
       </c>
@@ -7660,7 +7652,7 @@
         <f t="shared" si="5"/>
         <v>9.4912527649306262E-3</v>
       </c>
-      <c r="J176" s="3">
+      <c r="J176" s="2">
         <f t="shared" si="6"/>
         <v>0.53555219364599094</v>
       </c>
@@ -7700,7 +7692,7 @@
         <f t="shared" si="5"/>
         <v>6.8193172356369694E-2</v>
       </c>
-      <c r="J177" s="3">
+      <c r="J177" s="2">
         <f t="shared" si="6"/>
         <v>0.63586956521739135</v>
       </c>
@@ -7740,7 +7732,7 @@
         <f t="shared" si="5"/>
         <v>6.7411513366822566E-3</v>
       </c>
-      <c r="J178" s="3">
+      <c r="J178" s="2">
         <f t="shared" si="6"/>
         <v>0.36314152410575429</v>
       </c>
@@ -7780,7 +7772,7 @@
         <f t="shared" si="5"/>
         <v>3.9470458445697472E-2</v>
       </c>
-      <c r="J179" s="3">
+      <c r="J179" s="2">
         <f t="shared" si="6"/>
         <v>0.26788685524126454</v>
       </c>
@@ -7820,7 +7812,7 @@
         <f t="shared" si="5"/>
         <v>5.2829375718115662E-2</v>
       </c>
-      <c r="J180" s="3">
+      <c r="J180" s="2">
         <f t="shared" si="6"/>
         <v>3.4920886075949369</v>
       </c>
@@ -7829,6 +7821,1086 @@
       </c>
       <c r="L180" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3">
+        <v>399</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1903646</v>
+      </c>
+      <c r="D181" s="3">
+        <v>20637</v>
+      </c>
+      <c r="E181" s="3">
+        <v>5312</v>
+      </c>
+      <c r="F181" s="3">
+        <v>84957</v>
+      </c>
+      <c r="G181" s="3">
+        <v>1278</v>
+      </c>
+      <c r="H181" s="3">
+        <v>25949</v>
+      </c>
+      <c r="I181" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2047092373501869</v>
+      </c>
+      <c r="J181" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1564945226917054</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3">
+        <v>400</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1903676</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3730</v>
+      </c>
+      <c r="E182" s="3">
+        <v>628</v>
+      </c>
+      <c r="F182" s="3">
+        <v>18518</v>
+      </c>
+      <c r="G182" s="3">
+        <v>1275</v>
+      </c>
+      <c r="H182" s="3">
+        <v>4358</v>
+      </c>
+      <c r="I182" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14410279944928867</v>
+      </c>
+      <c r="J182" s="2">
+        <f t="shared" si="6"/>
+        <v>0.49254901960784314</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3">
+        <v>401</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1903673</v>
+      </c>
+      <c r="D183" s="3">
+        <v>44946</v>
+      </c>
+      <c r="E183" s="3">
+        <v>3039</v>
+      </c>
+      <c r="F183" s="3">
+        <v>83444</v>
+      </c>
+      <c r="G183" s="3">
+        <v>1328</v>
+      </c>
+      <c r="H183" s="3">
+        <v>47985</v>
+      </c>
+      <c r="I183" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3332291341044081E-2</v>
+      </c>
+      <c r="J183" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2884036144578315</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3">
+        <v>402</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1903698</v>
+      </c>
+      <c r="D184" s="3">
+        <v>57360</v>
+      </c>
+      <c r="E184" s="3">
+        <v>8792</v>
+      </c>
+      <c r="F184" s="3">
+        <v>111713</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1359</v>
+      </c>
+      <c r="H184" s="3">
+        <v>66152</v>
+      </c>
+      <c r="I184" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13290603458701172</v>
+      </c>
+      <c r="J184" s="2">
+        <f t="shared" si="6"/>
+        <v>6.4694628403237671</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3">
+        <v>403</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1903781</v>
+      </c>
+      <c r="D185" s="3">
+        <v>14254</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4463</v>
+      </c>
+      <c r="F185" s="3">
+        <v>64889</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1194</v>
+      </c>
+      <c r="H185" s="3">
+        <v>18717</v>
+      </c>
+      <c r="I185" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23844633221135866</v>
+      </c>
+      <c r="J185" s="2">
+        <f t="shared" si="6"/>
+        <v>3.73785594639866</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3">
+        <v>404</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1903797</v>
+      </c>
+      <c r="D186" s="3">
+        <v>40010</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1645</v>
+      </c>
+      <c r="F186" s="3">
+        <v>57838</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1332</v>
+      </c>
+      <c r="H186" s="3">
+        <v>41655</v>
+      </c>
+      <c r="I186" s="2">
+        <f t="shared" si="5"/>
+        <v>3.9491057496098908E-2</v>
+      </c>
+      <c r="J186" s="2">
+        <f t="shared" si="6"/>
+        <v>1.234984984984985</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3">
+        <v>405</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1903778</v>
+      </c>
+      <c r="D187" s="3">
+        <v>13166</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2302</v>
+      </c>
+      <c r="F187" s="3">
+        <v>58029</v>
+      </c>
+      <c r="G187" s="3">
+        <v>1094</v>
+      </c>
+      <c r="H187" s="3">
+        <v>15468</v>
+      </c>
+      <c r="I187" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14882337729506076</v>
+      </c>
+      <c r="J187" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1042047531992689</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <v>407</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1903164</v>
+      </c>
+      <c r="D188" s="3">
+        <v>59144</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1283</v>
+      </c>
+      <c r="F188" s="3">
+        <v>64518</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1303</v>
+      </c>
+      <c r="H188" s="3">
+        <v>60427</v>
+      </c>
+      <c r="I188" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1232230625382695E-2</v>
+      </c>
+      <c r="J188" s="2">
+        <f t="shared" si="6"/>
+        <v>0.98465080583269382</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <v>408</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1903165</v>
+      </c>
+      <c r="D189" s="3">
+        <v>4764</v>
+      </c>
+      <c r="E189" s="3">
+        <v>27</v>
+      </c>
+      <c r="F189" s="3">
+        <v>6285</v>
+      </c>
+      <c r="G189" s="3">
+        <v>1142</v>
+      </c>
+      <c r="H189" s="3">
+        <v>4791</v>
+      </c>
+      <c r="I189" s="2">
+        <f t="shared" si="5"/>
+        <v>5.6355666875391357E-3</v>
+      </c>
+      <c r="J189" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3642732049036778E-2</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <v>409</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1903166</v>
+      </c>
+      <c r="D190" s="3">
+        <v>30594</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1322</v>
+      </c>
+      <c r="F190" s="3">
+        <v>165038</v>
+      </c>
+      <c r="G190" s="3">
+        <v>2560</v>
+      </c>
+      <c r="H190" s="3">
+        <v>31916</v>
+      </c>
+      <c r="I190" s="2">
+        <f t="shared" si="5"/>
+        <v>4.1421230730668002E-2</v>
+      </c>
+      <c r="J190" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51640624999999996</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>410</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1903167</v>
+      </c>
+      <c r="D191" s="3">
+        <v>23061</v>
+      </c>
+      <c r="E191" s="3">
+        <v>620</v>
+      </c>
+      <c r="F191" s="3">
+        <v>39379</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1251</v>
+      </c>
+      <c r="H191" s="3">
+        <v>23681</v>
+      </c>
+      <c r="I191" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6181326802077614E-2</v>
+      </c>
+      <c r="J191" s="2">
+        <f t="shared" si="6"/>
+        <v>0.49560351718625101</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <v>411</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1903168</v>
+      </c>
+      <c r="D192" s="3">
+        <v>4594</v>
+      </c>
+      <c r="E192" s="3">
+        <v>78</v>
+      </c>
+      <c r="F192" s="3">
+        <v>13309</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1166</v>
+      </c>
+      <c r="H192" s="3">
+        <v>4672</v>
+      </c>
+      <c r="I192" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6695205479452056E-2</v>
+      </c>
+      <c r="J192" s="2">
+        <f t="shared" si="6"/>
+        <v>6.6895368782161235E-2</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>412</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1903169</v>
+      </c>
+      <c r="D193" s="3">
+        <v>222</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2</v>
+      </c>
+      <c r="F193" s="3">
+        <v>42637</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1285</v>
+      </c>
+      <c r="H193" s="3">
+        <v>224</v>
+      </c>
+      <c r="I193" s="2">
+        <f t="shared" si="5"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="J193" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5564202334630351E-3</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>413</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1903170</v>
+      </c>
+      <c r="D194" s="3">
+        <v>16993</v>
+      </c>
+      <c r="E194" s="3">
+        <v>24</v>
+      </c>
+      <c r="F194" s="3">
+        <v>77951</v>
+      </c>
+      <c r="G194" s="3">
+        <v>1222</v>
+      </c>
+      <c r="H194" s="3">
+        <v>17017</v>
+      </c>
+      <c r="I194" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4103543515308222E-3</v>
+      </c>
+      <c r="J194" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9639934533551555E-2</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <v>414</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1903171</v>
+      </c>
+      <c r="D195" s="3">
+        <v>12949</v>
+      </c>
+      <c r="E195" s="3">
+        <v>406</v>
+      </c>
+      <c r="F195" s="3">
+        <v>39644</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1222</v>
+      </c>
+      <c r="H195" s="3">
+        <v>13355</v>
+      </c>
+      <c r="I195" s="2">
+        <f t="shared" ref="I195:I207" si="7">E195/H195</f>
+        <v>3.0400599026581803E-2</v>
+      </c>
+      <c r="J195" s="2">
+        <f t="shared" ref="J195:J207" si="8">E195/G195</f>
+        <v>0.33224222585924712</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>415</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1903172</v>
+      </c>
+      <c r="D196" s="3">
+        <v>11224</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1446</v>
+      </c>
+      <c r="F196" s="3">
+        <v>20316</v>
+      </c>
+      <c r="G196" s="3">
+        <v>1258</v>
+      </c>
+      <c r="H196" s="3">
+        <v>12670</v>
+      </c>
+      <c r="I196" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11412786108918706</v>
+      </c>
+      <c r="J196" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1494435612082672</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>416</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1903173</v>
+      </c>
+      <c r="D197" s="3">
+        <v>28518</v>
+      </c>
+      <c r="E197" s="3">
+        <v>482</v>
+      </c>
+      <c r="F197" s="3">
+        <v>20728</v>
+      </c>
+      <c r="G197" s="3">
+        <v>1260</v>
+      </c>
+      <c r="H197" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I197" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6620689655172414E-2</v>
+      </c>
+      <c r="J197" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38253968253968251</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <v>417</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1903178</v>
+      </c>
+      <c r="D198" s="3">
+        <v>63266</v>
+      </c>
+      <c r="E198" s="3">
+        <v>173</v>
+      </c>
+      <c r="F198" s="3">
+        <v>44194</v>
+      </c>
+      <c r="G198" s="3">
+        <v>1224</v>
+      </c>
+      <c r="H198" s="3">
+        <v>63439</v>
+      </c>
+      <c r="I198" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7270291145825125E-3</v>
+      </c>
+      <c r="J198" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14133986928104575</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <v>418</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1903179</v>
+      </c>
+      <c r="D199" s="3">
+        <v>37551</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1186</v>
+      </c>
+      <c r="F199" s="3">
+        <v>61523</v>
+      </c>
+      <c r="G199" s="3">
+        <v>1365</v>
+      </c>
+      <c r="H199" s="3">
+        <v>38737</v>
+      </c>
+      <c r="I199" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0616723029661563E-2</v>
+      </c>
+      <c r="J199" s="2">
+        <f t="shared" si="8"/>
+        <v>0.86886446886446889</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <v>419</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1903181</v>
+      </c>
+      <c r="D200" s="3">
+        <v>30006</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1236</v>
+      </c>
+      <c r="F200" s="3">
+        <v>45194</v>
+      </c>
+      <c r="G200" s="3">
+        <v>1375</v>
+      </c>
+      <c r="H200" s="3">
+        <v>31242</v>
+      </c>
+      <c r="I200" s="2">
+        <f t="shared" si="7"/>
+        <v>3.9562127904743616E-2</v>
+      </c>
+      <c r="J200" s="2">
+        <f t="shared" si="8"/>
+        <v>0.89890909090909088</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <v>420</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1903180</v>
+      </c>
+      <c r="D201" s="3">
+        <v>28380</v>
+      </c>
+      <c r="E201" s="3">
+        <v>2943</v>
+      </c>
+      <c r="F201" s="3">
+        <v>69692</v>
+      </c>
+      <c r="G201" s="3">
+        <v>1351</v>
+      </c>
+      <c r="H201" s="3">
+        <v>31323</v>
+      </c>
+      <c r="I201" s="2">
+        <f t="shared" si="7"/>
+        <v>9.3956517574944928E-2</v>
+      </c>
+      <c r="J201" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1783863804589192</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <v>421</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1903182</v>
+      </c>
+      <c r="D202" s="3">
+        <v>39423</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1690</v>
+      </c>
+      <c r="F202" s="3">
+        <v>57596</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1284</v>
+      </c>
+      <c r="H202" s="3">
+        <v>41113</v>
+      </c>
+      <c r="I202" s="2">
+        <f t="shared" si="7"/>
+        <v>4.1106219443971491E-2</v>
+      </c>
+      <c r="J202" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3161993769470406</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3">
+        <v>422</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1903184</v>
+      </c>
+      <c r="D203" s="3">
+        <v>18071</v>
+      </c>
+      <c r="E203" s="3">
+        <v>196</v>
+      </c>
+      <c r="F203" s="3">
+        <v>75123</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1316</v>
+      </c>
+      <c r="H203" s="3">
+        <v>18267</v>
+      </c>
+      <c r="I203" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0729731209284502E-2</v>
+      </c>
+      <c r="J203" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3">
+        <v>423</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1903185</v>
+      </c>
+      <c r="D204" s="3">
+        <v>39102</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1027</v>
+      </c>
+      <c r="F204" s="3">
+        <v>66099</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1412</v>
+      </c>
+      <c r="H204" s="3">
+        <v>40129</v>
+      </c>
+      <c r="I204" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5592464302624039E-2</v>
+      </c>
+      <c r="J204" s="2">
+        <f t="shared" si="8"/>
+        <v>0.72733711048158645</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3">
+        <v>424</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1903186</v>
+      </c>
+      <c r="D205" s="4">
+        <v>25113</v>
+      </c>
+      <c r="E205" s="4">
+        <v>636</v>
+      </c>
+      <c r="F205" s="4">
+        <v>35672</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1274</v>
+      </c>
+      <c r="H205" s="4">
+        <v>25749</v>
+      </c>
+      <c r="I205" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4699988349062098E-2</v>
+      </c>
+      <c r="J205" s="2">
+        <f t="shared" si="8"/>
+        <v>0.49921507064364207</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3">
+        <v>425</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1903187</v>
+      </c>
+      <c r="D206" s="4">
+        <v>31963</v>
+      </c>
+      <c r="E206" s="4">
+        <v>714</v>
+      </c>
+      <c r="F206" s="4">
+        <v>41166</v>
+      </c>
+      <c r="G206" s="4">
+        <v>1257</v>
+      </c>
+      <c r="H206" s="4">
+        <v>32677</v>
+      </c>
+      <c r="I206" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1850231049361936E-2</v>
+      </c>
+      <c r="J206" s="2">
+        <f t="shared" si="8"/>
+        <v>0.56801909307875897</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3">
+        <v>426</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1903188</v>
+      </c>
+      <c r="D207" s="4">
+        <v>49583</v>
+      </c>
+      <c r="E207" s="4">
+        <v>1576</v>
+      </c>
+      <c r="F207" s="4">
+        <v>73201</v>
+      </c>
+      <c r="G207" s="4">
+        <v>1360</v>
+      </c>
+      <c r="H207" s="4">
+        <v>51159</v>
+      </c>
+      <c r="I207" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0805918802165797E-2</v>
+      </c>
+      <c r="J207" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1588235294117648</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/病例审查结果统计.xlsx
+++ b/dataset/病例审查结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjj\Desktop\病例审查统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29840F64-3331-4538-8782-FD33FDF5848A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1130F-3EBF-427C-96D3-A89AC70F27AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="0" windowWidth="18864" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1416" windowWidth="18864" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="20">
   <si>
     <t>病例号</t>
   </si>
@@ -157,13 +157,17 @@
     <t>(表里未找到诊断结果)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -251,18 +255,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -545,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230:L257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8409,11 +8410,11 @@
         <v>13355</v>
       </c>
       <c r="I195" s="2">
-        <f t="shared" ref="I195:I207" si="7">E195/H195</f>
+        <f t="shared" ref="I195:I229" si="7">E195/H195</f>
         <v>3.0400599026581803E-2</v>
       </c>
       <c r="J195" s="2">
-        <f t="shared" ref="J195:J207" si="8">E195/G195</f>
+        <f t="shared" ref="J195:J229" si="8">E195/G195</f>
         <v>0.33224222585924712</v>
       </c>
       <c r="K195" s="3" t="s">
@@ -8793,19 +8794,19 @@
       <c r="C205" s="3">
         <v>1903186</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="3">
         <v>25113</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="3">
         <v>636</v>
       </c>
-      <c r="F205" s="4">
+      <c r="F205" s="3">
         <v>35672</v>
       </c>
-      <c r="G205" s="4">
+      <c r="G205" s="3">
         <v>1274</v>
       </c>
-      <c r="H205" s="4">
+      <c r="H205" s="3">
         <v>25749</v>
       </c>
       <c r="I205" s="2">
@@ -8833,19 +8834,19 @@
       <c r="C206" s="3">
         <v>1903187</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>31963</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="3">
         <v>714</v>
       </c>
-      <c r="F206" s="4">
+      <c r="F206" s="3">
         <v>41166</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="3">
         <v>1257</v>
       </c>
-      <c r="H206" s="4">
+      <c r="H206" s="3">
         <v>32677</v>
       </c>
       <c r="I206" s="2">
@@ -8873,19 +8874,19 @@
       <c r="C207" s="3">
         <v>1903188</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>49583</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="3">
         <v>1576</v>
       </c>
-      <c r="F207" s="4">
+      <c r="F207" s="3">
         <v>73201</v>
       </c>
-      <c r="G207" s="4">
+      <c r="G207" s="3">
         <v>1360</v>
       </c>
-      <c r="H207" s="4">
+      <c r="H207" s="3">
         <v>51159</v>
       </c>
       <c r="I207" s="2">
@@ -8900,6 +8901,1950 @@
         <v>7</v>
       </c>
       <c r="L207" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3">
+        <v>427</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1903189</v>
+      </c>
+      <c r="D208" s="3">
+        <v>23005</v>
+      </c>
+      <c r="E208" s="3">
+        <v>3427</v>
+      </c>
+      <c r="F208" s="3">
+        <v>43435</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1344</v>
+      </c>
+      <c r="H208" s="3">
+        <v>26432</v>
+      </c>
+      <c r="I208" s="2">
+        <f t="shared" si="7"/>
+        <v>0.12965345036319612</v>
+      </c>
+      <c r="J208" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5498511904761907</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3">
+        <v>428</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1903190</v>
+      </c>
+      <c r="D209" s="3">
+        <v>55061</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1659</v>
+      </c>
+      <c r="F209" s="3">
+        <v>62539</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1352</v>
+      </c>
+      <c r="H209" s="3">
+        <v>56720</v>
+      </c>
+      <c r="I209" s="2">
+        <f t="shared" si="7"/>
+        <v>2.9248942172073342E-2</v>
+      </c>
+      <c r="J209" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2270710059171597</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3">
+        <v>429</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1903191</v>
+      </c>
+      <c r="D210" s="3">
+        <v>29930</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1221</v>
+      </c>
+      <c r="F210" s="3">
+        <v>61323</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1282</v>
+      </c>
+      <c r="H210" s="3">
+        <v>31151</v>
+      </c>
+      <c r="I210" s="2">
+        <f t="shared" si="7"/>
+        <v>3.9196173477576965E-2</v>
+      </c>
+      <c r="J210" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9524180967238689</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3">
+        <v>430</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1903192</v>
+      </c>
+      <c r="D211" s="3">
+        <v>9368</v>
+      </c>
+      <c r="E211" s="3">
+        <v>366</v>
+      </c>
+      <c r="F211" s="3">
+        <v>25749</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1288</v>
+      </c>
+      <c r="H211" s="3">
+        <v>9734</v>
+      </c>
+      <c r="I211" s="2">
+        <f t="shared" si="7"/>
+        <v>3.760016437230327E-2</v>
+      </c>
+      <c r="J211" s="2">
+        <f t="shared" si="8"/>
+        <v>0.28416149068322982</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3">
+        <v>431</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1903193</v>
+      </c>
+      <c r="D212" s="3">
+        <v>41193</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1093</v>
+      </c>
+      <c r="F212" s="3">
+        <v>65123</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1287</v>
+      </c>
+      <c r="H212" s="3">
+        <v>42286</v>
+      </c>
+      <c r="I212" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5847798325686989E-2</v>
+      </c>
+      <c r="J212" s="2">
+        <f t="shared" si="8"/>
+        <v>0.84926184926184922</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3">
+        <v>432</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1903194</v>
+      </c>
+      <c r="D213" s="3">
+        <v>48931</v>
+      </c>
+      <c r="E213" s="3">
+        <v>3565</v>
+      </c>
+      <c r="F213" s="3">
+        <v>94105</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1360</v>
+      </c>
+      <c r="H213" s="3">
+        <v>52496</v>
+      </c>
+      <c r="I213" s="2">
+        <f t="shared" si="7"/>
+        <v>6.7909935995123433E-2</v>
+      </c>
+      <c r="J213" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6213235294117645</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3">
+        <v>433</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1903195</v>
+      </c>
+      <c r="D214" s="3">
+        <v>59802</v>
+      </c>
+      <c r="E214" s="3">
+        <v>4054</v>
+      </c>
+      <c r="F214" s="3">
+        <v>56713</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1359</v>
+      </c>
+      <c r="H214" s="3">
+        <v>63856</v>
+      </c>
+      <c r="I214" s="2">
+        <f t="shared" si="7"/>
+        <v>6.3486594838386368E-2</v>
+      </c>
+      <c r="J214" s="2">
+        <f t="shared" si="8"/>
+        <v>2.9830757910228107</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3">
+        <v>434</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1903196</v>
+      </c>
+      <c r="D215" s="3">
+        <v>65137</v>
+      </c>
+      <c r="E215" s="3">
+        <v>3329</v>
+      </c>
+      <c r="F215" s="3">
+        <v>73140</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1313</v>
+      </c>
+      <c r="H215" s="3">
+        <v>68466</v>
+      </c>
+      <c r="I215" s="2">
+        <f t="shared" si="7"/>
+        <v>4.8622674027984696E-2</v>
+      </c>
+      <c r="J215" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5354150799695354</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3">
+        <v>435</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1903197</v>
+      </c>
+      <c r="D216" s="3">
+        <v>29360</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1594</v>
+      </c>
+      <c r="F216" s="3">
+        <v>76720</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1330</v>
+      </c>
+      <c r="H216" s="3">
+        <v>30954</v>
+      </c>
+      <c r="I216" s="2">
+        <f t="shared" si="7"/>
+        <v>5.149576791367836E-2</v>
+      </c>
+      <c r="J216" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1984962406015038</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3">
+        <v>436</v>
+      </c>
+      <c r="C217" s="3">
+        <v>1903198</v>
+      </c>
+      <c r="D217" s="3">
+        <v>38473</v>
+      </c>
+      <c r="E217" s="3">
+        <v>797</v>
+      </c>
+      <c r="F217" s="3">
+        <v>93936</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1340</v>
+      </c>
+      <c r="H217" s="3">
+        <v>39270</v>
+      </c>
+      <c r="I217" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0295390883626179E-2</v>
+      </c>
+      <c r="J217" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59477611940298503</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3">
+        <v>437</v>
+      </c>
+      <c r="C218" s="3">
+        <v>1903199</v>
+      </c>
+      <c r="D218" s="3">
+        <v>65349</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2939</v>
+      </c>
+      <c r="F218" s="3">
+        <v>117513</v>
+      </c>
+      <c r="G218" s="3">
+        <v>1305</v>
+      </c>
+      <c r="H218" s="3">
+        <v>68288</v>
+      </c>
+      <c r="I218" s="2">
+        <f t="shared" si="7"/>
+        <v>4.3038308341143396E-2</v>
+      </c>
+      <c r="J218" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2521072796934867</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3">
+        <v>438</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1903200</v>
+      </c>
+      <c r="D219" s="3">
+        <v>15952</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1270</v>
+      </c>
+      <c r="F219" s="3">
+        <v>50279</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1301</v>
+      </c>
+      <c r="H219" s="3">
+        <v>17222</v>
+      </c>
+      <c r="I219" s="2">
+        <f t="shared" si="7"/>
+        <v>7.374288700499361E-2</v>
+      </c>
+      <c r="J219" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97617217524980782</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3">
+        <v>439</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1903201</v>
+      </c>
+      <c r="D220" s="3">
+        <v>57896</v>
+      </c>
+      <c r="E220" s="3">
+        <v>639</v>
+      </c>
+      <c r="F220" s="3">
+        <v>74700</v>
+      </c>
+      <c r="G220" s="3">
+        <v>1297</v>
+      </c>
+      <c r="H220" s="3">
+        <v>58535</v>
+      </c>
+      <c r="I220" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0916545656444862E-2</v>
+      </c>
+      <c r="J220" s="2">
+        <f t="shared" si="8"/>
+        <v>0.49267540478026212</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3">
+        <v>440</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1903202</v>
+      </c>
+      <c r="D221" s="3">
+        <v>47240</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1373</v>
+      </c>
+      <c r="F221" s="3">
+        <v>61923</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1318</v>
+      </c>
+      <c r="H221" s="3">
+        <v>48613</v>
+      </c>
+      <c r="I221" s="2">
+        <f t="shared" si="7"/>
+        <v>2.8243473967868676E-2</v>
+      </c>
+      <c r="J221" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0417298937784523</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3">
+        <v>441</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1903203</v>
+      </c>
+      <c r="D222" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1422</v>
+      </c>
+      <c r="F222" s="3">
+        <v>26323</v>
+      </c>
+      <c r="G222" s="3">
+        <v>1324</v>
+      </c>
+      <c r="H222" s="3">
+        <v>27422</v>
+      </c>
+      <c r="I222" s="2">
+        <f t="shared" si="7"/>
+        <v>5.1856173874990884E-2</v>
+      </c>
+      <c r="J222" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0740181268882176</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3">
+        <v>442</v>
+      </c>
+      <c r="C223" s="3">
+        <v>1903204</v>
+      </c>
+      <c r="D223" s="3">
+        <v>44812</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1269</v>
+      </c>
+      <c r="F223" s="3">
+        <v>108238</v>
+      </c>
+      <c r="G223" s="3">
+        <v>1332</v>
+      </c>
+      <c r="H223" s="3">
+        <v>46081</v>
+      </c>
+      <c r="I223" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7538464877064298E-2</v>
+      </c>
+      <c r="J223" s="2">
+        <f t="shared" si="8"/>
+        <v>0.95270270270270274</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3">
+        <v>443</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1903205</v>
+      </c>
+      <c r="D224" s="3">
+        <v>62055</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1438</v>
+      </c>
+      <c r="F224" s="3">
+        <v>48717</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1266</v>
+      </c>
+      <c r="H224" s="3">
+        <v>63493</v>
+      </c>
+      <c r="I224" s="2">
+        <f t="shared" si="7"/>
+        <v>2.2648165939552392E-2</v>
+      </c>
+      <c r="J224" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1358609794628751</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3">
+        <v>444</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1903206</v>
+      </c>
+      <c r="D225" s="3">
+        <v>35958</v>
+      </c>
+      <c r="E225" s="3">
+        <v>547</v>
+      </c>
+      <c r="F225" s="3">
+        <v>43065</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1286</v>
+      </c>
+      <c r="H225" s="3">
+        <v>36505</v>
+      </c>
+      <c r="I225" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4984248733050267E-2</v>
+      </c>
+      <c r="J225" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42534992223950235</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3">
+        <v>445</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1903207</v>
+      </c>
+      <c r="D226" s="3">
+        <v>12115</v>
+      </c>
+      <c r="E226" s="3">
+        <v>130</v>
+      </c>
+      <c r="F226" s="3">
+        <v>12073</v>
+      </c>
+      <c r="G226" s="3">
+        <v>1284</v>
+      </c>
+      <c r="H226" s="3">
+        <v>12245</v>
+      </c>
+      <c r="I226" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0616578195181707E-2</v>
+      </c>
+      <c r="J226" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10124610591900311</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3">
+        <v>446</v>
+      </c>
+      <c r="C227" s="3">
+        <v>1903208</v>
+      </c>
+      <c r="D227" s="3">
+        <v>32791</v>
+      </c>
+      <c r="E227" s="3">
+        <v>726</v>
+      </c>
+      <c r="F227" s="3">
+        <v>71135</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1355</v>
+      </c>
+      <c r="H227" s="3">
+        <v>33517</v>
+      </c>
+      <c r="I227" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1660649819494584E-2</v>
+      </c>
+      <c r="J227" s="2">
+        <f t="shared" si="8"/>
+        <v>0.5357933579335793</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3">
+        <v>447</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1903209</v>
+      </c>
+      <c r="D228" s="3">
+        <v>17171</v>
+      </c>
+      <c r="E228" s="3">
+        <v>559</v>
+      </c>
+      <c r="F228" s="3">
+        <v>46019</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1296</v>
+      </c>
+      <c r="H228" s="3">
+        <v>17730</v>
+      </c>
+      <c r="I228" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1528482797518333E-2</v>
+      </c>
+      <c r="J228" s="2">
+        <f t="shared" si="8"/>
+        <v>0.43132716049382713</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3">
+        <v>448</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1903210</v>
+      </c>
+      <c r="D229" s="3">
+        <v>33037</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1128</v>
+      </c>
+      <c r="F229" s="3">
+        <v>53403</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1310</v>
+      </c>
+      <c r="H229" s="3">
+        <v>34165</v>
+      </c>
+      <c r="I229" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3016244694863167E-2</v>
+      </c>
+      <c r="J229" s="2">
+        <f t="shared" si="8"/>
+        <v>0.86106870229007637</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3">
+        <v>449</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1903211</v>
+      </c>
+      <c r="D230" s="3">
+        <v>83477</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1135</v>
+      </c>
+      <c r="F230" s="3">
+        <v>84252</v>
+      </c>
+      <c r="G230" s="3">
+        <v>1275</v>
+      </c>
+      <c r="H230" s="3">
+        <v>84612</v>
+      </c>
+      <c r="I230" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="J230" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3">
+        <v>451</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1903222</v>
+      </c>
+      <c r="D231" s="1">
+        <v>83477</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1135</v>
+      </c>
+      <c r="F231" s="1">
+        <v>84252</v>
+      </c>
+      <c r="G231" s="1">
+        <v>1275</v>
+      </c>
+      <c r="H231" s="1">
+        <v>84612</v>
+      </c>
+      <c r="I231" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="J231" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3">
+        <v>452</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1903223</v>
+      </c>
+      <c r="D232" s="1">
+        <v>46967</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1296</v>
+      </c>
+      <c r="F232" s="1">
+        <v>69608</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1284</v>
+      </c>
+      <c r="H232" s="1">
+        <v>48263</v>
+      </c>
+      <c r="I232" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="J232" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3">
+        <v>456</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1903213</v>
+      </c>
+      <c r="D233" s="1">
+        <v>37110</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F233" s="1">
+        <v>57750</v>
+      </c>
+      <c r="G233" s="1">
+        <v>1380</v>
+      </c>
+      <c r="H233" s="1">
+        <v>38390</v>
+      </c>
+      <c r="I233" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="J233" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3">
+        <v>457</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1903214</v>
+      </c>
+      <c r="D234" s="1">
+        <v>60277</v>
+      </c>
+      <c r="E234" s="1">
+        <v>856</v>
+      </c>
+      <c r="F234" s="1">
+        <v>64902</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1294</v>
+      </c>
+      <c r="H234" s="1">
+        <v>61133</v>
+      </c>
+      <c r="I234" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J234" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3">
+        <v>458</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1903219</v>
+      </c>
+      <c r="D235" s="1">
+        <v>53995</v>
+      </c>
+      <c r="E235" s="1">
+        <v>3148</v>
+      </c>
+      <c r="F235" s="1">
+        <v>92994</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1354</v>
+      </c>
+      <c r="H235" s="1">
+        <v>57143</v>
+      </c>
+      <c r="I235" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="J235" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3">
+        <v>459</v>
+      </c>
+      <c r="C236" s="3">
+        <v>1903220</v>
+      </c>
+      <c r="D236" s="1">
+        <v>72084</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1615</v>
+      </c>
+      <c r="F236" s="1">
+        <v>60177</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1344</v>
+      </c>
+      <c r="H236" s="1">
+        <v>73699</v>
+      </c>
+      <c r="I236" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="J236" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3">
+        <v>460</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1903221</v>
+      </c>
+      <c r="D237" s="1">
+        <v>28992</v>
+      </c>
+      <c r="E237" s="1">
+        <v>221</v>
+      </c>
+      <c r="F237" s="1">
+        <v>77694</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1314</v>
+      </c>
+      <c r="H237" s="1">
+        <v>29213</v>
+      </c>
+      <c r="I237" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="J237" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3">
+        <v>461</v>
+      </c>
+      <c r="C238" s="3">
+        <v>1903226</v>
+      </c>
+      <c r="D238" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E238" s="1">
+        <v>2223</v>
+      </c>
+      <c r="F238" s="1">
+        <v>47605</v>
+      </c>
+      <c r="G238" s="1">
+        <v>1318</v>
+      </c>
+      <c r="H238" s="1">
+        <v>46571</v>
+      </c>
+      <c r="I238" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J238" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3">
+        <v>462</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1903224</v>
+      </c>
+      <c r="D239" s="1">
+        <v>37208</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1849</v>
+      </c>
+      <c r="F239" s="1">
+        <v>81880</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1359</v>
+      </c>
+      <c r="H239" s="1">
+        <v>39057</v>
+      </c>
+      <c r="I239" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J239" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3">
+        <v>464</v>
+      </c>
+      <c r="C240" s="3">
+        <v>1903227</v>
+      </c>
+      <c r="D240" s="1">
+        <v>58496</v>
+      </c>
+      <c r="E240" s="1">
+        <v>526</v>
+      </c>
+      <c r="F240" s="1">
+        <v>42215</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1336</v>
+      </c>
+      <c r="H240" s="1">
+        <v>59022</v>
+      </c>
+      <c r="I240" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J240" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3">
+        <v>465</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1903228</v>
+      </c>
+      <c r="D241" s="1">
+        <v>686</v>
+      </c>
+      <c r="E241" s="1">
+        <v>26</v>
+      </c>
+      <c r="F241" s="1">
+        <v>24506</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1392</v>
+      </c>
+      <c r="H241" s="1">
+        <v>712</v>
+      </c>
+      <c r="I241" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="J241" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3">
+        <v>467</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1903229</v>
+      </c>
+      <c r="D242" s="1">
+        <v>47870</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1141</v>
+      </c>
+      <c r="F242" s="1">
+        <v>47554</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1306</v>
+      </c>
+      <c r="H242" s="1">
+        <v>49011</v>
+      </c>
+      <c r="I242" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3">
+        <v>468</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1903231</v>
+      </c>
+      <c r="D243" s="1">
+        <v>32691</v>
+      </c>
+      <c r="E243" s="1">
+        <v>830</v>
+      </c>
+      <c r="F243" s="1">
+        <v>59306</v>
+      </c>
+      <c r="G243" s="1">
+        <v>1277</v>
+      </c>
+      <c r="H243" s="1">
+        <v>33521</v>
+      </c>
+      <c r="I243" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="J243" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3">
+        <v>469</v>
+      </c>
+      <c r="C244" s="3">
+        <v>1903232</v>
+      </c>
+      <c r="D244" s="1">
+        <v>77574</v>
+      </c>
+      <c r="E244" s="1">
+        <v>715</v>
+      </c>
+      <c r="F244" s="1">
+        <v>58105</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1328</v>
+      </c>
+      <c r="H244" s="1">
+        <v>78289</v>
+      </c>
+      <c r="I244" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="J244" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3">
+        <v>471</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1903234</v>
+      </c>
+      <c r="D245" s="1">
+        <v>70745</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1517</v>
+      </c>
+      <c r="F245" s="1">
+        <v>62824</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1374</v>
+      </c>
+      <c r="H245" s="1">
+        <v>72262</v>
+      </c>
+      <c r="I245" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="J245" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3">
+        <v>472</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1903235</v>
+      </c>
+      <c r="D246" s="1">
+        <v>39730</v>
+      </c>
+      <c r="E246" s="1">
+        <v>4056</v>
+      </c>
+      <c r="F246" s="1">
+        <v>66010</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1289</v>
+      </c>
+      <c r="H246" s="1">
+        <v>43786</v>
+      </c>
+      <c r="I246" s="2">
+        <v>9.26</v>
+      </c>
+      <c r="J246" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3">
+        <v>473</v>
+      </c>
+      <c r="C247" s="3">
+        <v>1903236</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2820</v>
+      </c>
+      <c r="E247" s="1">
+        <v>84</v>
+      </c>
+      <c r="F247" s="1">
+        <v>9959</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1231</v>
+      </c>
+      <c r="H247" s="1">
+        <v>2904</v>
+      </c>
+      <c r="I247" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="J247" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3">
+        <v>475</v>
+      </c>
+      <c r="C248" s="3">
+        <v>1903237</v>
+      </c>
+      <c r="D248" s="1">
+        <v>88268</v>
+      </c>
+      <c r="E248" s="1">
+        <v>3286</v>
+      </c>
+      <c r="F248" s="1">
+        <v>106438</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1334</v>
+      </c>
+      <c r="H248" s="1">
+        <v>91554</v>
+      </c>
+      <c r="I248" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="J248" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3">
+        <v>477</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1903240</v>
+      </c>
+      <c r="D249" s="1">
+        <v>17585</v>
+      </c>
+      <c r="E249" s="1">
+        <v>490</v>
+      </c>
+      <c r="F249" s="1">
+        <v>58466</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1297</v>
+      </c>
+      <c r="H249" s="1">
+        <v>18075</v>
+      </c>
+      <c r="I249" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="J249" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3">
+        <v>478</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1903241</v>
+      </c>
+      <c r="D250" s="1">
+        <v>41891</v>
+      </c>
+      <c r="E250" s="1">
+        <v>260</v>
+      </c>
+      <c r="F250" s="1">
+        <v>58225</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1294</v>
+      </c>
+      <c r="H250" s="1">
+        <v>42151</v>
+      </c>
+      <c r="I250" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J250" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3">
+        <v>479</v>
+      </c>
+      <c r="C251" s="3">
+        <v>1903242</v>
+      </c>
+      <c r="D251" s="1">
+        <v>91888</v>
+      </c>
+      <c r="E251" s="1">
+        <v>632</v>
+      </c>
+      <c r="F251" s="1">
+        <v>60732</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1269</v>
+      </c>
+      <c r="H251" s="1">
+        <v>92520</v>
+      </c>
+      <c r="I251" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J251" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3">
+        <v>480</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1903243</v>
+      </c>
+      <c r="D252" s="1">
+        <v>23098</v>
+      </c>
+      <c r="E252" s="1">
+        <v>523</v>
+      </c>
+      <c r="F252" s="1">
+        <v>51519</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1239</v>
+      </c>
+      <c r="H252" s="1">
+        <v>23621</v>
+      </c>
+      <c r="I252" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="J252" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <v>481</v>
+      </c>
+      <c r="C253" s="3">
+        <v>1903245</v>
+      </c>
+      <c r="D253" s="1">
+        <v>17499</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1202</v>
+      </c>
+      <c r="F253" s="1">
+        <v>52154</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1263</v>
+      </c>
+      <c r="H253" s="1">
+        <v>18701</v>
+      </c>
+      <c r="I253" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="J253" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <v>482</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1903246</v>
+      </c>
+      <c r="D254" s="1">
+        <v>23463</v>
+      </c>
+      <c r="E254" s="1">
+        <v>368</v>
+      </c>
+      <c r="F254" s="1">
+        <v>35310</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1235</v>
+      </c>
+      <c r="H254" s="1">
+        <v>23831</v>
+      </c>
+      <c r="I254" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="J254" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <v>483</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1903248</v>
+      </c>
+      <c r="D255" s="1">
+        <v>69262</v>
+      </c>
+      <c r="E255" s="1">
+        <v>2190</v>
+      </c>
+      <c r="F255" s="1">
+        <v>31469</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1257</v>
+      </c>
+      <c r="H255" s="1">
+        <v>71452</v>
+      </c>
+      <c r="I255" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="J255" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <v>484</v>
+      </c>
+      <c r="C256" s="3">
+        <v>1903249</v>
+      </c>
+      <c r="D256" s="1">
+        <v>26712</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1397</v>
+      </c>
+      <c r="F256" s="1">
+        <v>31656</v>
+      </c>
+      <c r="G256" s="1">
+        <v>1235</v>
+      </c>
+      <c r="H256" s="1">
+        <v>28109</v>
+      </c>
+      <c r="I256" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="J256" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>485</v>
+      </c>
+      <c r="C257" s="3">
+        <v>1903250</v>
+      </c>
+      <c r="D257" s="1">
+        <v>47593</v>
+      </c>
+      <c r="E257" s="1">
+        <v>428</v>
+      </c>
+      <c r="F257" s="1">
+        <v>88284</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1350</v>
+      </c>
+      <c r="H257" s="1">
+        <v>48021</v>
+      </c>
+      <c r="I257" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="J257" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L257" s="3" t="s">
         <v>16</v>
       </c>
     </row>
